--- a/eda/vlsp2016/train/column-2-analyze.xlsx
+++ b/eda/vlsp2016/train/column-2-analyze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>2</t>
   </si>
@@ -22,136 +22,82 @@
     <t>count</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>B-AP</t>
   </si>
   <si>
-    <t>A, Ab, V</t>
-  </si>
-  <si>
     <t>nhiều, hơn, khác, gần, lớn, cùng, nhỏ, đủ, cao, mới</t>
   </si>
   <si>
-    <t>B-EP</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>B-IP</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>ơi, nhé, à, ạ, Thôi, Vâng, nhỉ, À, Chao ôi, Nào</t>
-  </si>
-  <si>
-    <t>B-MP</t>
-  </si>
-  <si>
-    <t>CH, N</t>
-  </si>
-  <si>
-    <t>-, –, quý</t>
+    <t>A, V</t>
   </si>
   <si>
     <t>B-NP</t>
   </si>
   <si>
-    <t>N, P, NNP, M, Ns, L, Nc, Nu, Ny, Ne</t>
-  </si>
-  <si>
     <t>một, người, những, ông, các, tôi, anh, này, năm, khi</t>
   </si>
   <si>
-    <t>B-NPb</t>
-  </si>
-  <si>
-    <t>Nb</t>
-  </si>
-  <si>
-    <t>logo, bar, xalông, carô, Love, Naltrexone, resort, Co-op, game, vali</t>
+    <t>N, P, Np, M, Nc, L, Nu, Ny, FW, CH</t>
   </si>
   <si>
     <t>B-PP</t>
   </si>
   <si>
+    <t>của, trong, cho, ở, với, để, đến, từ, vào, về</t>
+  </si>
+  <si>
     <t>E, FW</t>
   </si>
   <si>
-    <t>của, trong, cho, ở, với, để, đến, từ, vào, về</t>
-  </si>
-  <si>
     <t>B-VP</t>
   </si>
   <si>
-    <t>V, Vb, FW, X, Vy, Fw, A, Nb</t>
-  </si>
-  <si>
     <t>có, là, được, đi, ra, làm, phải, biết, lên, nói</t>
   </si>
   <si>
-    <t>B-VPb</t>
-  </si>
-  <si>
-    <t>Vb</t>
-  </si>
-  <si>
-    <t>bye, photo, sex, chat, welcome</t>
+    <t>V, FW, A, X, Vy</t>
   </si>
   <si>
     <t>I-AP</t>
   </si>
   <si>
+    <t>Cổ, mù, tối cao</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>Cổ, mù, tối cao</t>
-  </si>
-  <si>
     <t>I-NP</t>
   </si>
   <si>
-    <t>NNP, N, M, CH, Ny, V, A, Nb, Ni, Cc</t>
-  </si>
-  <si>
     <t>Văn, Anh, HCM, Thị, Việt, Nam, Trung, Minh, VN, -</t>
   </si>
   <si>
-    <t>I-RP</t>
-  </si>
-  <si>
-    <t>Cc</t>
-  </si>
-  <si>
-    <t>và</t>
+    <t>Np, N, M, CH, Ny, V, A, FW, C, E</t>
   </si>
   <si>
     <t>I-VP</t>
   </si>
   <si>
+    <t>Tư vấn, phòng chống, du lịch, Phòng chống, vận tải, xây lắp, dự phòng, vận chuyển, Vận tải</t>
+  </si>
+  <si>
     <t>V</t>
   </si>
   <si>
-    <t>Tư vấn, phòng chống, Phòng chống, du lịch, xây lắp, Vận tải, dự phòng, vận tải, vận chuyển</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
-    <t>CH, R, C, Cc, T, X, Z, I, FW, N</t>
-  </si>
-  <si>
     <t>,, ., ", và, không, đã, ..., :, “, cũng</t>
+  </si>
+  <si>
+    <t>CH, R, C, T, X, I, Z, FW, N, E</t>
   </si>
 </sst>
 </file>
@@ -500,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>130871</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -555,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>70</v>
+        <v>19711</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -569,7 +515,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>66574</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -583,7 +529,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>130847</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -597,7 +543,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>7841</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -611,7 +557,7 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>19710</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -625,97 +571,13 @@
         <v>25</v>
       </c>
       <c r="B9" t="n">
-        <v>66567</v>
+        <v>81544</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7841</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="n">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="n">
-        <v>81455</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
